--- a/01.Documentation/01.Diseño/Tests/DCDC/Calibracion DAC.xlsx
+++ b/01.Documentation/01.Diseño/Tests/DCDC/Calibracion DAC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\Team Dropbox\JRODRIGUEZ\Repositorios\01.Rover\01.Documentation\01.Diseño\Tests\DCDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javi\TEAMDR~1\JRODRI~1\Repositorios\01.Rover\01.Documentation\01.Diseño\Tests\DCDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF489A6-A68F-477C-B33F-4370B4CF7336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B2DB6F-C7C5-4C54-970C-C84E681DB9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{1F2CF652-4A2E-4701-B4BE-D2C83886312B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{1F2CF652-4A2E-4701-B4BE-D2C83886312B}"/>
   </bookViews>
   <sheets>
     <sheet name="120-1420" sheetId="1" r:id="rId1"/>
     <sheet name="140-1435" sheetId="2" r:id="rId2"/>
+    <sheet name="Tarjeta verificacion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>DAC count</t>
   </si>
@@ -107,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -166,12 +167,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3664,6 +3665,2174 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7A1F-4E3F-95D4-7ADFD1C1E73B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1955612608"/>
+        <c:axId val="1955616352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1955612608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955616352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1955616352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955612608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarjeta verificacion'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout teorico
+(mV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarjeta verificacion'!$D$7:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E07-423F-88C9-97172C9255A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarjeta verificacion'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout medido
+(mV) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarjeta verificacion'!$E$7:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>5016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5804</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6404</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6609</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6704</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6893</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7403</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7704</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8211</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8306</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8514</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8608</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8799</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8909</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9305</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9511</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9605</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9701</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9812</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9907</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10206</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10301</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10396</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10507</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10602</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10697</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10808</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10903</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11109</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11203</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11299</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11409</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11506</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11601</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11712</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11808</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11902</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E07-423F-88C9-97172C9255A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1693085360"/>
+        <c:axId val="1693088272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1693085360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693088272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1693088272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13000"/>
+          <c:min val="4500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693085360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarjeta verificacion'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error(mV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tarjeta verificacion'!$D$7:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tarjeta verificacion'!$F$7:$F$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C320-4797-9AD8-3FD4F77E801D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1959899648"/>
+        <c:axId val="1959900064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1959899648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12000"/>
+          <c:min val="5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959900064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1959900064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959899648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarjeta verificacion'!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Err(q)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tarjeta verificacion'!$D$7:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10200</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11300</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11700</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11900</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarjeta verificacion'!$G$7:$G$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="71"/>
+                <c:pt idx="0">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACA6-4212-AC70-B2F03BB58789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4032,6 +6201,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6097,6 +8386,1541 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6775,6 +10599,125 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2070936-3049-4988-88E0-38EF7B07FFA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF36CB4A-FCEC-45FE-B7B3-96DC29816656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E849472-E3EE-4514-B898-A1EFE8466666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7080,7 +11023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7198,7 +11141,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="6">
-        <f>ROUND($E$4-(((A7-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" ref="B7:B38" si="0">ROUND($E$4-(((A7-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
         <v>485</v>
       </c>
       <c r="C7" s="7">
@@ -7221,7 +11164,7 @@
         <v>51</v>
       </c>
       <c r="B8">
-        <f>ROUND($E$4-(((A8-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>479</v>
       </c>
       <c r="C8" s="5">
@@ -7235,7 +11178,7 @@
         <v>5190</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F71" si="0">E8-D8</f>
+        <f t="shared" ref="F8:F71" si="1">E8-D8</f>
         <v>90</v>
       </c>
     </row>
@@ -7244,11 +11187,11 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <f>ROUND($E$4-(((A9-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>472</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ref="C9:C72" si="1">B9*$E$1/$E$2</f>
+        <f t="shared" ref="C9:C72" si="2">B9*$E$1/$E$2</f>
         <v>1382.8125</v>
       </c>
       <c r="D9">
@@ -7258,7 +11201,7 @@
         <v>5283</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -7267,11 +11210,11 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <f>ROUND($E$4-(((A10-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>466</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1365.234375</v>
       </c>
       <c r="D10">
@@ -7281,7 +11224,7 @@
         <v>5393</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -7290,11 +11233,11 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <f>ROUND($E$4-(((A11-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>460</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1347.65625</v>
       </c>
       <c r="D11">
@@ -7304,7 +11247,7 @@
         <v>5488</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -7313,11 +11256,11 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <f>ROUND($E$4-(((A12-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>453</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1327.1484375</v>
       </c>
       <c r="D12">
@@ -7327,7 +11270,7 @@
         <v>5582</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
@@ -7336,11 +11279,11 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <f>ROUND($E$4-(((A13-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>447</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1309.5703125</v>
       </c>
       <c r="D13">
@@ -7350,7 +11293,7 @@
         <v>5694</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -7359,11 +11302,11 @@
         <v>57</v>
       </c>
       <c r="B14">
-        <f>ROUND($E$4-(((A14-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>441</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1291.9921875</v>
       </c>
       <c r="D14">
@@ -7373,7 +11316,7 @@
         <v>5788</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -7382,11 +11325,11 @@
         <v>58</v>
       </c>
       <c r="B15">
-        <f>ROUND($E$4-(((A15-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>434</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1271.484375</v>
       </c>
       <c r="D15">
@@ -7396,7 +11339,7 @@
         <v>5882</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
     </row>
@@ -7405,11 +11348,11 @@
         <v>59</v>
       </c>
       <c r="B16">
-        <f>ROUND($E$4-(((A16-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>428</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1253.90625</v>
       </c>
       <c r="D16">
@@ -7419,7 +11362,7 @@
         <v>5995</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -7428,11 +11371,11 @@
         <v>60</v>
       </c>
       <c r="B17" s="6">
-        <f>ROUND($E$4-(((A17-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>422</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1236.328125</v>
       </c>
       <c r="D17" s="6">
@@ -7442,7 +11385,7 @@
         <v>6088</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -7451,11 +11394,11 @@
         <v>61</v>
       </c>
       <c r="B18">
-        <f>ROUND($E$4-(((A18-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>415</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1215.8203125</v>
       </c>
       <c r="D18">
@@ -7465,7 +11408,7 @@
         <v>6184</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
@@ -7474,11 +11417,11 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <f>ROUND($E$4-(((A19-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>409</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1198.2421875</v>
       </c>
       <c r="D19">
@@ -7488,7 +11431,7 @@
         <v>6294</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -7497,11 +11440,11 @@
         <v>63</v>
       </c>
       <c r="B20">
-        <f>ROUND($E$4-(((A20-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>403</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1180.6640625</v>
       </c>
       <c r="D20">
@@ -7511,7 +11454,7 @@
         <v>6388</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
@@ -7520,11 +11463,11 @@
         <v>64</v>
       </c>
       <c r="B21">
-        <f>ROUND($E$4-(((A21-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>396</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1160.15625</v>
       </c>
       <c r="D21">
@@ -7534,7 +11477,7 @@
         <v>6483</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -7543,11 +11486,11 @@
         <v>65</v>
       </c>
       <c r="B22">
-        <f>ROUND($E$4-(((A22-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1142.578125</v>
       </c>
       <c r="D22">
@@ -7557,7 +11500,7 @@
         <v>6594</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -7566,11 +11509,11 @@
         <v>66</v>
       </c>
       <c r="B23">
-        <f>ROUND($E$4-(((A23-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>384</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1125</v>
       </c>
       <c r="D23">
@@ -7580,7 +11523,7 @@
         <v>6689</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
@@ -7589,11 +11532,11 @@
         <v>67</v>
       </c>
       <c r="B24">
-        <f>ROUND($E$4-(((A24-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>377</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1104.4921875</v>
       </c>
       <c r="D24">
@@ -7603,7 +11546,7 @@
         <v>6783</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -7612,11 +11555,11 @@
         <v>68</v>
       </c>
       <c r="B25">
-        <f>ROUND($E$4-(((A25-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>371</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1086.9140625</v>
       </c>
       <c r="D25">
@@ -7626,7 +11569,7 @@
         <v>6894</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -7635,11 +11578,11 @@
         <v>69</v>
       </c>
       <c r="B26">
-        <f>ROUND($E$4-(((A26-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1066.40625</v>
       </c>
       <c r="D26">
@@ -7649,7 +11592,7 @@
         <v>6989</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
@@ -7658,11 +11601,11 @@
         <v>70</v>
       </c>
       <c r="B27" s="6">
-        <f>ROUND($E$4-(((A27-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>358</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1048.828125</v>
       </c>
       <c r="D27" s="6">
@@ -7672,7 +11615,7 @@
         <v>7085</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
     </row>
@@ -7681,11 +11624,11 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <f>ROUND($E$4-(((A28-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>352</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1031.25</v>
       </c>
       <c r="D28">
@@ -7695,7 +11638,7 @@
         <v>7197</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
     </row>
@@ -7704,11 +11647,11 @@
         <v>72</v>
       </c>
       <c r="B29">
-        <f>ROUND($E$4-(((A29-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1010.7421875</v>
       </c>
       <c r="D29">
@@ -7718,7 +11661,7 @@
         <v>7291</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
@@ -7727,11 +11670,11 @@
         <v>73</v>
       </c>
       <c r="B30">
-        <f>ROUND($E$4-(((A30-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>339</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>993.1640625</v>
       </c>
       <c r="D30">
@@ -7741,7 +11684,7 @@
         <v>7387</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
@@ -7750,11 +11693,11 @@
         <v>74</v>
       </c>
       <c r="B31">
-        <f>ROUND($E$4-(((A31-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>333</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>975.5859375</v>
       </c>
       <c r="D31">
@@ -7764,7 +11707,7 @@
         <v>7499</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -7773,11 +11716,11 @@
         <v>75</v>
       </c>
       <c r="B32">
-        <f>ROUND($E$4-(((A32-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>955.078125</v>
       </c>
       <c r="D32">
@@ -7787,7 +11730,7 @@
         <v>7592</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
@@ -7796,11 +11739,11 @@
         <v>76</v>
       </c>
       <c r="B33">
-        <f>ROUND($E$4-(((A33-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>937.5</v>
       </c>
       <c r="D33">
@@ -7810,7 +11753,7 @@
         <v>7687</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
@@ -7819,11 +11762,11 @@
         <v>77</v>
       </c>
       <c r="B34">
-        <f>ROUND($E$4-(((A34-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>314</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>919.921875</v>
       </c>
       <c r="D34">
@@ -7833,7 +11776,7 @@
         <v>7799</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -7842,11 +11785,11 @@
         <v>78</v>
       </c>
       <c r="B35">
-        <f>ROUND($E$4-(((A35-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>899.4140625</v>
       </c>
       <c r="D35">
@@ -7856,7 +11799,7 @@
         <v>7893</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -7865,11 +11808,11 @@
         <v>79</v>
       </c>
       <c r="B36">
-        <f>ROUND($E$4-(((A36-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>301</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>881.8359375</v>
       </c>
       <c r="D36">
@@ -7879,7 +11822,7 @@
         <v>7989</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
@@ -7888,11 +11831,11 @@
         <v>80</v>
       </c>
       <c r="B37" s="6">
-        <f>ROUND($E$4-(((A37-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>295</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>864.2578125</v>
       </c>
       <c r="D37" s="6">
@@ -7902,7 +11845,7 @@
         <v>8099</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -7911,11 +11854,11 @@
         <v>81</v>
       </c>
       <c r="B38">
-        <f>ROUND($E$4-(((A38-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>843.75</v>
       </c>
       <c r="D38">
@@ -7925,7 +11868,7 @@
         <v>8194</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -7934,11 +11877,11 @@
         <v>82</v>
       </c>
       <c r="B39">
-        <f>ROUND($E$4-(((A39-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" ref="B39:B70" si="3">ROUND($E$4-(((A39-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
         <v>282</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>826.171875</v>
       </c>
       <c r="D39">
@@ -7948,7 +11891,7 @@
         <v>8290</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -7957,11 +11900,11 @@
         <v>83</v>
       </c>
       <c r="B40">
-        <f>ROUND($E$4-(((A40-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>276</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>808.59375</v>
       </c>
       <c r="D40">
@@ -7971,7 +11914,7 @@
         <v>8401</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
@@ -7980,11 +11923,11 @@
         <v>84</v>
       </c>
       <c r="B41">
-        <f>ROUND($E$4-(((A41-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>269</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>788.0859375</v>
       </c>
       <c r="D41">
@@ -7994,7 +11937,7 @@
         <v>8499</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -8003,11 +11946,11 @@
         <v>85</v>
       </c>
       <c r="B42">
-        <f>ROUND($E$4-(((A42-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>263</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>770.5078125</v>
       </c>
       <c r="D42">
@@ -8017,7 +11960,7 @@
         <v>8609</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
@@ -8026,11 +11969,11 @@
         <v>86</v>
       </c>
       <c r="B43">
-        <f>ROUND($E$4-(((A43-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>752.9296875</v>
       </c>
       <c r="D43">
@@ -8040,7 +11983,7 @@
         <v>8703</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -8049,11 +11992,11 @@
         <v>87</v>
       </c>
       <c r="B44">
-        <f>ROUND($E$4-(((A44-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>732.421875</v>
       </c>
       <c r="D44">
@@ -8063,7 +12006,7 @@
         <v>8799</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
@@ -8072,11 +12015,11 @@
         <v>88</v>
       </c>
       <c r="B45">
-        <f>ROUND($E$4-(((A45-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>714.84375</v>
       </c>
       <c r="D45">
@@ -8086,7 +12029,7 @@
         <v>8909</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
@@ -8095,11 +12038,11 @@
         <v>89</v>
       </c>
       <c r="B46">
-        <f>ROUND($E$4-(((A46-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>697.265625</v>
       </c>
       <c r="D46">
@@ -8109,7 +12052,7 @@
         <v>9005</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
@@ -8118,11 +12061,11 @@
         <v>90</v>
       </c>
       <c r="B47" s="6">
-        <f>ROUND($E$4-(((A47-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>676.7578125</v>
       </c>
       <c r="D47" s="6">
@@ -8132,7 +12075,7 @@
         <v>9100</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -8141,11 +12084,11 @@
         <v>91</v>
       </c>
       <c r="B48">
-        <f>ROUND($E$4-(((A48-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>659.1796875</v>
       </c>
       <c r="D48">
@@ -8155,7 +12098,7 @@
         <v>9211</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
     </row>
@@ -8164,11 +12107,11 @@
         <v>92</v>
       </c>
       <c r="B49">
-        <f>ROUND($E$4-(((A49-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>641.6015625</v>
       </c>
       <c r="D49">
@@ -8178,7 +12121,7 @@
         <v>9306</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
@@ -8187,11 +12130,11 @@
         <v>93</v>
       </c>
       <c r="B50">
-        <f>ROUND($E$4-(((A50-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>621.09375</v>
       </c>
       <c r="D50">
@@ -8201,7 +12144,7 @@
         <v>9401</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
     </row>
@@ -8210,11 +12153,11 @@
         <v>94</v>
       </c>
       <c r="B51">
-        <f>ROUND($E$4-(((A51-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>603.515625</v>
       </c>
       <c r="D51">
@@ -8224,7 +12167,7 @@
         <v>9512</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
@@ -8233,11 +12176,11 @@
         <v>95</v>
       </c>
       <c r="B52">
-        <f>ROUND($E$4-(((A52-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>585.9375</v>
       </c>
       <c r="D52">
@@ -8247,7 +12190,7 @@
         <v>9606</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
@@ -8256,11 +12199,11 @@
         <v>96</v>
       </c>
       <c r="B53">
-        <f>ROUND($E$4-(((A53-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>565.4296875</v>
       </c>
       <c r="D53">
@@ -8270,7 +12213,7 @@
         <v>9700</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -8279,11 +12222,11 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <f>ROUND($E$4-(((A54-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>547.8515625</v>
       </c>
       <c r="D54">
@@ -8293,7 +12236,7 @@
         <v>9813</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -8302,11 +12245,11 @@
         <v>98</v>
       </c>
       <c r="B55">
-        <f>ROUND($E$4-(((A55-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>530.2734375</v>
       </c>
       <c r="D55">
@@ -8316,7 +12259,7 @@
         <v>9907</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
@@ -8325,11 +12268,11 @@
         <v>99</v>
       </c>
       <c r="B56">
-        <f>ROUND($E$4-(((A56-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>509.765625</v>
       </c>
       <c r="D56">
@@ -8339,7 +12282,7 @@
         <v>10003</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -8348,11 +12291,11 @@
         <v>100</v>
       </c>
       <c r="B57" s="6">
-        <f>ROUND($E$4-(((A57-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="C57" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>492.1875</v>
       </c>
       <c r="D57" s="6">
@@ -8362,7 +12305,7 @@
         <v>10113</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -8371,11 +12314,11 @@
         <v>101</v>
       </c>
       <c r="B58">
-        <f>ROUND($E$4-(((A58-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>474.609375</v>
       </c>
       <c r="D58">
@@ -8385,7 +12328,7 @@
         <v>10207</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
     </row>
@@ -8394,11 +12337,11 @@
         <v>102</v>
       </c>
       <c r="B59">
-        <f>ROUND($E$4-(((A59-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>454.1015625</v>
       </c>
       <c r="D59">
@@ -8408,7 +12351,7 @@
         <v>10302</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
@@ -8417,11 +12360,11 @@
         <v>103</v>
       </c>
       <c r="B60">
-        <f>ROUND($E$4-(((A60-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>436.5234375</v>
       </c>
       <c r="D60">
@@ -8431,7 +12374,7 @@
         <v>10413</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -8440,11 +12383,11 @@
         <v>104</v>
       </c>
       <c r="B61">
-        <f>ROUND($E$4-(((A61-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>416.015625</v>
       </c>
       <c r="D61">
@@ -8454,7 +12397,7 @@
         <v>10509</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
@@ -8463,11 +12406,11 @@
         <v>105</v>
       </c>
       <c r="B62">
-        <f>ROUND($E$4-(((A62-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>398.4375</v>
       </c>
       <c r="D62">
@@ -8477,7 +12420,7 @@
         <v>10602</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
@@ -8486,11 +12429,11 @@
         <v>106</v>
       </c>
       <c r="B63">
-        <f>ROUND($E$4-(((A63-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>380.859375</v>
       </c>
       <c r="D63">
@@ -8500,7 +12443,7 @@
         <v>10713</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
     </row>
@@ -8509,11 +12452,11 @@
         <v>107</v>
       </c>
       <c r="B64">
-        <f>ROUND($E$4-(((A64-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>360.3515625</v>
       </c>
       <c r="D64">
@@ -8523,7 +12466,7 @@
         <v>10809</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
@@ -8532,11 +12475,11 @@
         <v>108</v>
       </c>
       <c r="B65">
-        <f>ROUND($E$4-(((A65-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>342.7734375</v>
       </c>
       <c r="D65">
@@ -8546,7 +12489,7 @@
         <v>10903</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -8555,11 +12498,11 @@
         <v>109</v>
       </c>
       <c r="B66">
-        <f>ROUND($E$4-(((A66-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325.1953125</v>
       </c>
       <c r="D66">
@@ -8569,7 +12512,7 @@
         <v>11015</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
@@ -8578,11 +12521,11 @@
         <v>110</v>
       </c>
       <c r="B67" s="6">
-        <f>ROUND($E$4-(((A67-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>304.6875</v>
       </c>
       <c r="D67" s="6">
@@ -8592,7 +12535,7 @@
         <v>11109</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
@@ -8601,11 +12544,11 @@
         <v>111</v>
       </c>
       <c r="B68">
-        <f>ROUND($E$4-(((A68-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>287.109375</v>
       </c>
       <c r="D68">
@@ -8615,7 +12558,7 @@
         <v>11203</v>
       </c>
       <c r="F68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -8624,11 +12567,11 @@
         <v>112</v>
       </c>
       <c r="B69">
-        <f>ROUND($E$4-(((A69-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>269.53125</v>
       </c>
       <c r="D69">
@@ -8638,7 +12581,7 @@
         <v>11315</v>
       </c>
       <c r="F69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
@@ -8647,11 +12590,11 @@
         <v>113</v>
       </c>
       <c r="B70">
-        <f>ROUND($E$4-(((A70-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>249.0234375</v>
       </c>
       <c r="D70">
@@ -8661,7 +12604,7 @@
         <v>11409</v>
       </c>
       <c r="F70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
     </row>
@@ -8670,11 +12613,11 @@
         <v>114</v>
       </c>
       <c r="B71">
-        <f>ROUND($E$4-(((A71-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" ref="B71:B102" si="4">ROUND($E$4-(((A71-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
         <v>79</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>231.4453125</v>
       </c>
       <c r="D71">
@@ -8684,7 +12627,7 @@
         <v>11506</v>
       </c>
       <c r="F71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
@@ -8693,11 +12636,11 @@
         <v>115</v>
       </c>
       <c r="B72">
-        <f>ROUND($E$4-(((A72-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213.8671875</v>
       </c>
       <c r="D72">
@@ -8707,7 +12650,7 @@
         <v>11616</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F77" si="2">E72-D72</f>
+        <f t="shared" ref="F72:F77" si="5">E72-D72</f>
         <v>116</v>
       </c>
     </row>
@@ -8716,11 +12659,11 @@
         <v>116</v>
       </c>
       <c r="B73">
-        <f>ROUND($E$4-(((A73-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" ref="C73:C77" si="3">B73*$E$1/$E$2</f>
+        <f t="shared" ref="C73:C77" si="6">B73*$E$1/$E$2</f>
         <v>193.359375</v>
       </c>
       <c r="D73">
@@ -8730,7 +12673,7 @@
         <v>11712</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
     </row>
@@ -8739,11 +12682,11 @@
         <v>117</v>
       </c>
       <c r="B74">
-        <f>ROUND($E$4-(((A74-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>175.78125</v>
       </c>
       <c r="D74">
@@ -8753,7 +12696,7 @@
         <v>11807</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
     </row>
@@ -8762,11 +12705,11 @@
         <v>118</v>
       </c>
       <c r="B75">
-        <f>ROUND($E$4-(((A75-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>158.203125</v>
       </c>
       <c r="D75">
@@ -8776,7 +12719,7 @@
         <v>11918</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
     </row>
@@ -8785,11 +12728,11 @@
         <v>119</v>
       </c>
       <c r="B76">
-        <f>ROUND($E$4-(((A76-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>137.6953125</v>
       </c>
       <c r="D76">
@@ -8799,7 +12742,7 @@
         <v>12014</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
     </row>
@@ -8808,11 +12751,11 @@
         <v>120</v>
       </c>
       <c r="B77">
-        <f>ROUND($E$4-(((A77-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120.1171875</v>
       </c>
       <c r="D77">
@@ -8822,7 +12765,7 @@
         <v>12123</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
     </row>
@@ -8836,7 +12779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCAF998-9803-4AEC-9A37-8EE1F21ADE4F}">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -8961,7 +12904,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="6">
-        <f>ROUND($E$4-(((A7-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" ref="B7:B38" si="0">ROUND($E$4-(((A7-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
         <v>490</v>
       </c>
       <c r="C7" s="7">
@@ -8988,7 +12931,7 @@
         <v>51</v>
       </c>
       <c r="B8">
-        <f>ROUND($E$4-(((A8-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>484</v>
       </c>
       <c r="C8" s="5">
@@ -9002,11 +12945,11 @@
         <v>5109</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F71" si="0">E8-D8</f>
+        <f t="shared" ref="F8:F71" si="1">E8-D8</f>
         <v>9</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:G71" si="1">ROUND(F8/$I$2,1)</f>
+        <f t="shared" ref="G8:G71" si="2">ROUND(F8/$I$2,1)</f>
         <v>3.1</v>
       </c>
     </row>
@@ -9015,11 +12958,11 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <f>ROUND($E$4-(((A9-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>477</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ref="C9:C72" si="2">B9*$E$1/$E$2</f>
+        <f t="shared" ref="C9:C72" si="3">B9*$E$1/$E$2</f>
         <v>1397.4609375</v>
       </c>
       <c r="D9">
@@ -9029,11 +12972,11 @@
         <v>5204</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
@@ -9042,11 +12985,11 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <f>ROUND($E$4-(((A10-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>471</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1379.8828125</v>
       </c>
       <c r="D10">
@@ -9056,11 +12999,11 @@
         <v>5300</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9069,11 +13012,11 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <f>ROUND($E$4-(((A11-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1362.3046875</v>
       </c>
       <c r="D11">
@@ -9083,11 +13026,11 @@
         <v>5409</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -9096,11 +13039,11 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <f>ROUND($E$4-(((A12-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>458</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1341.796875</v>
       </c>
       <c r="D12">
@@ -9110,11 +13053,11 @@
         <v>5503</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9123,11 +13066,11 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <f>ROUND($E$4-(((A13-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>452</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1324.21875</v>
       </c>
       <c r="D13">
@@ -9137,11 +13080,11 @@
         <v>5598</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.7</v>
       </c>
     </row>
@@ -9150,11 +13093,11 @@
         <v>57</v>
       </c>
       <c r="B14">
-        <f>ROUND($E$4-(((A14-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>446</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1306.640625</v>
       </c>
       <c r="D14">
@@ -9164,11 +13107,11 @@
         <v>5710</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
     </row>
@@ -9177,11 +13120,11 @@
         <v>58</v>
       </c>
       <c r="B15">
-        <f>ROUND($E$4-(((A15-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1286.1328125</v>
       </c>
       <c r="D15">
@@ -9191,11 +13134,11 @@
         <v>5804</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
@@ -9204,11 +13147,11 @@
         <v>59</v>
       </c>
       <c r="B16">
-        <f>ROUND($E$4-(((A16-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>433</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1268.5546875</v>
       </c>
       <c r="D16">
@@ -9218,11 +13161,11 @@
         <v>5899</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -9231,11 +13174,11 @@
         <v>60</v>
       </c>
       <c r="B17" s="6">
-        <f>ROUND($E$4-(((A17-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1250.9765625</v>
       </c>
       <c r="D17" s="6">
@@ -9245,11 +13188,11 @@
         <v>6010</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
     </row>
@@ -9258,11 +13201,11 @@
         <v>61</v>
       </c>
       <c r="B18">
-        <f>ROUND($E$4-(((A18-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>421</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1233.3984375</v>
       </c>
       <c r="D18">
@@ -9272,11 +13215,11 @@
         <v>6104</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
@@ -9285,11 +13228,11 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <f>ROUND($E$4-(((A19-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>414</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1212.890625</v>
       </c>
       <c r="D19">
@@ -9299,11 +13242,11 @@
         <v>6200</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9312,11 +13255,11 @@
         <v>63</v>
       </c>
       <c r="B20">
-        <f>ROUND($E$4-(((A20-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>408</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1195.3125</v>
       </c>
       <c r="D20">
@@ -9326,11 +13269,11 @@
         <v>6310</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
     </row>
@@ -9339,11 +13282,11 @@
         <v>64</v>
       </c>
       <c r="B21">
-        <f>ROUND($E$4-(((A21-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>402</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1177.734375</v>
       </c>
       <c r="D21">
@@ -9353,11 +13296,11 @@
         <v>6404</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
@@ -9366,11 +13309,11 @@
         <v>65</v>
       </c>
       <c r="B22">
-        <f>ROUND($E$4-(((A22-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>395</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1157.2265625</v>
       </c>
       <c r="D22">
@@ -9380,11 +13323,11 @@
         <v>6500</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9393,11 +13336,11 @@
         <v>66</v>
       </c>
       <c r="B23">
-        <f>ROUND($E$4-(((A23-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>389</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1139.6484375</v>
       </c>
       <c r="D23">
@@ -9407,11 +13350,11 @@
         <v>6609</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -9420,11 +13363,11 @@
         <v>67</v>
       </c>
       <c r="B24">
-        <f>ROUND($E$4-(((A24-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>383</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1122.0703125</v>
       </c>
       <c r="D24">
@@ -9434,11 +13377,11 @@
         <v>6704</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
@@ -9447,11 +13390,11 @@
         <v>68</v>
       </c>
       <c r="B25">
-        <f>ROUND($E$4-(((A25-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1101.5625</v>
       </c>
       <c r="D25">
@@ -9461,11 +13404,11 @@
         <v>6799</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -9474,11 +13417,11 @@
         <v>69</v>
       </c>
       <c r="B26">
-        <f>ROUND($E$4-(((A26-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>370</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1083.984375</v>
       </c>
       <c r="D26">
@@ -9488,11 +13431,11 @@
         <v>6893</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.4</v>
       </c>
     </row>
@@ -9501,11 +13444,11 @@
         <v>70</v>
       </c>
       <c r="B27" s="6">
-        <f>ROUND($E$4-(((A27-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1066.40625</v>
       </c>
       <c r="D27" s="6">
@@ -9515,11 +13458,11 @@
         <v>7005</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
     </row>
@@ -9528,11 +13471,11 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <f>ROUND($E$4-(((A28-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>357</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1045.8984375</v>
       </c>
       <c r="D28">
@@ -9542,11 +13485,11 @@
         <v>7101</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
@@ -9555,11 +13498,11 @@
         <v>72</v>
       </c>
       <c r="B29">
-        <f>ROUND($E$4-(((A29-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>351</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1028.3203125</v>
       </c>
       <c r="D29">
@@ -9569,11 +13512,11 @@
         <v>7198</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.7</v>
       </c>
     </row>
@@ -9582,11 +13525,11 @@
         <v>73</v>
       </c>
       <c r="B30">
-        <f>ROUND($E$4-(((A30-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1010.7421875</v>
       </c>
       <c r="D30">
@@ -9596,11 +13539,11 @@
         <v>7308</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
     </row>
@@ -9609,11 +13552,11 @@
         <v>74</v>
       </c>
       <c r="B31">
-        <f>ROUND($E$4-(((A31-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>338</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>990.234375</v>
       </c>
       <c r="D31">
@@ -9623,11 +13566,11 @@
         <v>7403</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9636,11 +13579,11 @@
         <v>75</v>
       </c>
       <c r="B32">
-        <f>ROUND($E$4-(((A32-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>332</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>972.65625</v>
       </c>
       <c r="D32">
@@ -9650,11 +13593,11 @@
         <v>7499</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -9663,11 +13606,11 @@
         <v>76</v>
       </c>
       <c r="B33">
-        <f>ROUND($E$4-(((A33-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>955.078125</v>
       </c>
       <c r="D33">
@@ -9677,11 +13620,11 @@
         <v>7608</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
     </row>
@@ -9690,11 +13633,11 @@
         <v>77</v>
       </c>
       <c r="B34">
-        <f>ROUND($E$4-(((A34-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>937.5</v>
       </c>
       <c r="D34">
@@ -9704,11 +13647,11 @@
         <v>7704</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
     </row>
@@ -9717,11 +13660,11 @@
         <v>78</v>
       </c>
       <c r="B35">
-        <f>ROUND($E$4-(((A35-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>313</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>916.9921875</v>
       </c>
       <c r="D35">
@@ -9731,11 +13674,11 @@
         <v>7799</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -9744,11 +13687,11 @@
         <v>79</v>
       </c>
       <c r="B36">
-        <f>ROUND($E$4-(((A36-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>899.4140625</v>
       </c>
       <c r="D36">
@@ -9758,11 +13701,11 @@
         <v>7909</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -9771,11 +13714,11 @@
         <v>80</v>
       </c>
       <c r="B37" s="6">
-        <f>ROUND($E$4-(((A37-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>301</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>881.8359375</v>
       </c>
       <c r="D37" s="6">
@@ -9785,11 +13728,11 @@
         <v>8005</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G37" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
     </row>
@@ -9798,11 +13741,11 @@
         <v>81</v>
       </c>
       <c r="B38">
-        <f>ROUND($E$4-(((A38-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>861.328125</v>
       </c>
       <c r="D38">
@@ -9812,11 +13755,11 @@
         <v>8099</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -9825,11 +13768,11 @@
         <v>82</v>
       </c>
       <c r="B39">
-        <f>ROUND($E$4-(((A39-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" ref="B39:B70" si="4">ROUND($E$4-(((A39-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
         <v>288</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>843.75</v>
       </c>
       <c r="D39">
@@ -9839,11 +13782,11 @@
         <v>8211</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
     </row>
@@ -9852,11 +13795,11 @@
         <v>83</v>
       </c>
       <c r="B40">
-        <f>ROUND($E$4-(((A40-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>826.171875</v>
       </c>
       <c r="D40">
@@ -9866,11 +13809,11 @@
         <v>8306</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -9879,11 +13822,11 @@
         <v>84</v>
       </c>
       <c r="B41">
-        <f>ROUND($E$4-(((A41-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>805.6640625</v>
       </c>
       <c r="D41">
@@ -9893,11 +13836,11 @@
         <v>8401</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
@@ -9906,11 +13849,11 @@
         <v>85</v>
       </c>
       <c r="B42">
-        <f>ROUND($E$4-(((A42-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>788.0859375</v>
       </c>
       <c r="D42">
@@ -9920,11 +13863,11 @@
         <v>8514</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
     </row>
@@ -9933,11 +13876,11 @@
         <v>86</v>
       </c>
       <c r="B43">
-        <f>ROUND($E$4-(((A43-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>770.5078125</v>
       </c>
       <c r="D43">
@@ -9947,11 +13890,11 @@
         <v>8608</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
     </row>
@@ -9960,11 +13903,11 @@
         <v>87</v>
       </c>
       <c r="B44">
-        <f>ROUND($E$4-(((A44-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="D44">
@@ -9974,11 +13917,11 @@
         <v>8703</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9987,11 +13930,11 @@
         <v>88</v>
       </c>
       <c r="B45">
-        <f>ROUND($E$4-(((A45-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>732.421875</v>
       </c>
       <c r="D45">
@@ -10001,11 +13944,11 @@
         <v>8799</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -10014,11 +13957,11 @@
         <v>89</v>
       </c>
       <c r="B46">
-        <f>ROUND($E$4-(((A46-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>714.84375</v>
       </c>
       <c r="D46">
@@ -10028,11 +13971,11 @@
         <v>8909</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -10041,11 +13984,11 @@
         <v>90</v>
       </c>
       <c r="B47" s="6">
-        <f>ROUND($E$4-(((A47-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>694.3359375</v>
       </c>
       <c r="D47" s="6">
@@ -10055,11 +13998,11 @@
         <v>9006</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G47" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10068,11 +14011,11 @@
         <v>91</v>
       </c>
       <c r="B48">
-        <f>ROUND($E$4-(((A48-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>676.7578125</v>
       </c>
       <c r="D48">
@@ -10082,11 +14025,11 @@
         <v>9100</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10095,11 +14038,11 @@
         <v>92</v>
       </c>
       <c r="B49">
-        <f>ROUND($E$4-(((A49-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>659.1796875</v>
       </c>
       <c r="D49">
@@ -10109,11 +14052,11 @@
         <v>9211</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
     </row>
@@ -10122,11 +14065,11 @@
         <v>93</v>
       </c>
       <c r="B50">
-        <f>ROUND($E$4-(((A50-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>218</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>638.671875</v>
       </c>
       <c r="D50">
@@ -10136,11 +14079,11 @@
         <v>9305</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
     </row>
@@ -10149,11 +14092,11 @@
         <v>94</v>
       </c>
       <c r="B51">
-        <f>ROUND($E$4-(((A51-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>212</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>621.09375</v>
       </c>
       <c r="D51">
@@ -10163,11 +14106,11 @@
         <v>9400</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10176,11 +14119,11 @@
         <v>95</v>
       </c>
       <c r="B52">
-        <f>ROUND($E$4-(((A52-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>206</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>603.515625</v>
       </c>
       <c r="D52">
@@ -10190,11 +14133,11 @@
         <v>9511</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
     </row>
@@ -10203,11 +14146,11 @@
         <v>96</v>
       </c>
       <c r="B53">
-        <f>ROUND($E$4-(((A53-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>585.9375</v>
       </c>
       <c r="D53">
@@ -10217,11 +14160,11 @@
         <v>9605</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
     </row>
@@ -10230,11 +14173,11 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <f>ROUND($E$4-(((A54-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>193</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>565.4296875</v>
       </c>
       <c r="D54">
@@ -10244,11 +14187,11 @@
         <v>9701</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
@@ -10257,11 +14200,11 @@
         <v>98</v>
       </c>
       <c r="B55">
-        <f>ROUND($E$4-(((A55-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>187</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>547.8515625</v>
       </c>
       <c r="D55">
@@ -10271,11 +14214,11 @@
         <v>9812</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -10284,11 +14227,11 @@
         <v>99</v>
       </c>
       <c r="B56">
-        <f>ROUND($E$4-(((A56-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>181</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>530.2734375</v>
       </c>
       <c r="D56">
@@ -10298,11 +14241,11 @@
         <v>9907</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
@@ -10311,11 +14254,11 @@
         <v>100</v>
       </c>
       <c r="B57" s="6">
-        <f>ROUND($E$4-(((A57-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>174</v>
       </c>
       <c r="C57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>509.765625</v>
       </c>
       <c r="D57" s="6">
@@ -10325,11 +14268,11 @@
         <v>10002</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
     </row>
@@ -10338,11 +14281,11 @@
         <v>101</v>
       </c>
       <c r="B58">
-        <f>ROUND($E$4-(((A58-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>492.1875</v>
       </c>
       <c r="D58">
@@ -10352,11 +14295,11 @@
         <v>10112</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -10365,11 +14308,11 @@
         <v>102</v>
       </c>
       <c r="B59">
-        <f>ROUND($E$4-(((A59-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>474.609375</v>
       </c>
       <c r="D59">
@@ -10379,11 +14322,11 @@
         <v>10206</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10392,11 +14335,11 @@
         <v>103</v>
       </c>
       <c r="B60">
-        <f>ROUND($E$4-(((A60-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>454.1015625</v>
       </c>
       <c r="D60">
@@ -10406,11 +14349,11 @@
         <v>10301</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
@@ -10419,11 +14362,11 @@
         <v>104</v>
       </c>
       <c r="B61">
-        <f>ROUND($E$4-(((A61-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>436.5234375</v>
       </c>
       <c r="D61">
@@ -10433,11 +14376,11 @@
         <v>10396</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4</v>
       </c>
     </row>
@@ -10446,11 +14389,11 @@
         <v>105</v>
       </c>
       <c r="B62">
-        <f>ROUND($E$4-(((A62-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>418.9453125</v>
       </c>
       <c r="D62">
@@ -10460,11 +14403,11 @@
         <v>10507</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
     </row>
@@ -10473,11 +14416,11 @@
         <v>106</v>
       </c>
       <c r="B63">
-        <f>ROUND($E$4-(((A63-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>398.4375</v>
       </c>
       <c r="D63">
@@ -10487,11 +14430,11 @@
         <v>10602</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
     </row>
@@ -10500,11 +14443,11 @@
         <v>107</v>
       </c>
       <c r="B64">
-        <f>ROUND($E$4-(((A64-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>380.859375</v>
       </c>
       <c r="D64">
@@ -10514,11 +14457,11 @@
         <v>10697</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
@@ -10527,11 +14470,11 @@
         <v>108</v>
       </c>
       <c r="B65">
-        <f>ROUND($E$4-(((A65-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>363.28125</v>
       </c>
       <c r="D65">
@@ -10541,11 +14484,11 @@
         <v>10808</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
     </row>
@@ -10554,11 +14497,11 @@
         <v>109</v>
       </c>
       <c r="B66">
-        <f>ROUND($E$4-(((A66-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>342.7734375</v>
       </c>
       <c r="D66">
@@ -10568,11 +14511,11 @@
         <v>10903</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10581,11 +14524,11 @@
         <v>110</v>
       </c>
       <c r="B67" s="6">
-        <f>ROUND($E$4-(((A67-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>325.1953125</v>
       </c>
       <c r="D67" s="6">
@@ -10595,11 +14538,11 @@
         <v>10999</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G67" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -10608,11 +14551,11 @@
         <v>111</v>
       </c>
       <c r="B68">
-        <f>ROUND($E$4-(((A68-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>307.6171875</v>
       </c>
       <c r="D68">
@@ -10622,11 +14565,11 @@
         <v>11109</v>
       </c>
       <c r="F68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -10635,11 +14578,11 @@
         <v>112</v>
       </c>
       <c r="B69">
-        <f>ROUND($E$4-(((A69-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>290.0390625</v>
       </c>
       <c r="D69">
@@ -10649,11 +14592,11 @@
         <v>11203</v>
       </c>
       <c r="F69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10662,11 +14605,11 @@
         <v>113</v>
       </c>
       <c r="B70">
-        <f>ROUND($E$4-(((A70-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>269.53125</v>
       </c>
       <c r="D70">
@@ -10676,11 +14619,11 @@
         <v>11299</v>
       </c>
       <c r="F70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
     </row>
@@ -10689,11 +14632,11 @@
         <v>114</v>
       </c>
       <c r="B71">
-        <f>ROUND($E$4-(((A71-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" ref="B71:B102" si="5">ROUND($E$4-(((A71-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
         <v>86</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>251.953125</v>
       </c>
       <c r="D71">
@@ -10703,11 +14646,11 @@
         <v>11409</v>
       </c>
       <c r="F71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -10716,11 +14659,11 @@
         <v>115</v>
       </c>
       <c r="B72">
-        <f>ROUND($E$4-(((A72-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>234.375</v>
       </c>
       <c r="D72">
@@ -10730,11 +14673,11 @@
         <v>11506</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F77" si="3">E72-D72</f>
+        <f t="shared" ref="F72:F77" si="6">E72-D72</f>
         <v>6</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" ref="G72:G77" si="4">ROUND(F72/$I$2,1)</f>
+        <f t="shared" ref="G72:G77" si="7">ROUND(F72/$I$2,1)</f>
         <v>2</v>
       </c>
     </row>
@@ -10743,11 +14686,11 @@
         <v>116</v>
       </c>
       <c r="B73">
-        <f>ROUND($E$4-(((A73-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" ref="C73:C77" si="5">B73*$E$1/$E$2</f>
+        <f t="shared" ref="C73:C77" si="8">B73*$E$1/$E$2</f>
         <v>213.8671875</v>
       </c>
       <c r="D73">
@@ -10757,11 +14700,11 @@
         <v>11601</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
     </row>
@@ -10770,11 +14713,11 @@
         <v>117</v>
       </c>
       <c r="B74">
-        <f>ROUND($E$4-(((A74-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>196.2890625</v>
       </c>
       <c r="D74">
@@ -10784,11 +14727,11 @@
         <v>11712</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -10797,11 +14740,11 @@
         <v>118</v>
       </c>
       <c r="B75">
-        <f>ROUND($E$4-(((A75-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>178.7109375</v>
       </c>
       <c r="D75">
@@ -10811,11 +14754,11 @@
         <v>11808</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
     </row>
@@ -10824,11 +14767,11 @@
         <v>119</v>
       </c>
       <c r="B76">
-        <f>ROUND($E$4-(((A76-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>158.203125</v>
       </c>
       <c r="D76">
@@ -10838,11 +14781,11 @@
         <v>11902</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
     </row>
@@ -10851,11 +14794,11 @@
         <v>120</v>
       </c>
       <c r="B77" s="6">
-        <f>ROUND($E$4-(((A77-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>140.625</v>
       </c>
       <c r="D77" s="6">
@@ -10865,12 +14808,2059 @@
         <v>12013</v>
       </c>
       <c r="F77" s="6">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="G77" s="9">
+        <f t="shared" si="7"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A63C88-A9BB-4F41-B0BE-889B3645BB98}">
+  <dimension ref="A1:J77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3300</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4096</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3">
+        <f>E1/E2</f>
+        <v>0.8056640625</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(B3*E2/E1,0)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>ROUND( B4*E2/E1,0)</f>
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>50</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" ref="B7:B70" si="0">ROUND($E$4-(((A7-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <v>1781</v>
+      </c>
+      <c r="C7" s="7">
+        <f>B7*$E$1/$E$2</f>
+        <v>1434.8876953125</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5016</v>
+      </c>
+      <c r="F7" s="6">
+        <f>E7-D7</f>
+        <v>16</v>
+      </c>
+      <c r="G7" s="9">
+        <f>ROUND(F7/$I$2,1)</f>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1758</v>
+      </c>
+      <c r="C8" s="5">
+        <f>B8*$E$1/$E$2</f>
+        <v>1416.357421875</v>
+      </c>
+      <c r="D8">
+        <v>5100</v>
+      </c>
+      <c r="E8">
+        <v>5109</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F71" si="1">E8-D8</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" ref="G8:G71" si="2">ROUND(F8/$I$2,1)</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1735</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:C72" si="3">B9*$E$1/$E$2</f>
+        <v>1397.8271484375</v>
+      </c>
+      <c r="D9">
+        <v>5200</v>
+      </c>
+      <c r="E9">
+        <v>5204</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1712</v>
+      </c>
+      <c r="C10" s="5">
         <f t="shared" si="3"/>
+        <v>1379.296875</v>
+      </c>
+      <c r="D10">
+        <v>5300</v>
+      </c>
+      <c r="E10">
+        <v>5300</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1689</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="3"/>
+        <v>1360.7666015625</v>
+      </c>
+      <c r="D11">
+        <v>5400</v>
+      </c>
+      <c r="E11">
+        <v>5409</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1666</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="3"/>
+        <v>1342.236328125</v>
+      </c>
+      <c r="D12">
+        <v>5500</v>
+      </c>
+      <c r="E12">
+        <v>5503</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1643</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="3"/>
+        <v>1323.7060546875</v>
+      </c>
+      <c r="D13">
+        <v>5600</v>
+      </c>
+      <c r="E13">
+        <v>5598</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="3"/>
+        <v>1305.17578125</v>
+      </c>
+      <c r="D14">
+        <v>5700</v>
+      </c>
+      <c r="E14">
+        <v>5710</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1597</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="3"/>
+        <v>1286.6455078125</v>
+      </c>
+      <c r="D15">
+        <v>5800</v>
+      </c>
+      <c r="E15">
+        <v>5804</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1574</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="3"/>
+        <v>1268.115234375</v>
+      </c>
+      <c r="D16">
+        <v>5900</v>
+      </c>
+      <c r="E16">
+        <v>5899</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>60</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>1551</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="3"/>
+        <v>1249.5849609375</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6010</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1528</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="3"/>
+        <v>1231.0546875</v>
+      </c>
+      <c r="D18">
+        <v>6100</v>
+      </c>
+      <c r="E18">
+        <v>6104</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1506</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="3"/>
+        <v>1213.330078125</v>
+      </c>
+      <c r="D19">
+        <v>6200</v>
+      </c>
+      <c r="E19">
+        <v>6200</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1483</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="3"/>
+        <v>1194.7998046875</v>
+      </c>
+      <c r="D20">
+        <v>6300</v>
+      </c>
+      <c r="E20">
+        <v>6310</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1460</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="3"/>
+        <v>1176.26953125</v>
+      </c>
+      <c r="D21">
+        <v>6400</v>
+      </c>
+      <c r="E21">
+        <v>6404</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1437</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="3"/>
+        <v>1157.7392578125</v>
+      </c>
+      <c r="D22">
+        <v>6500</v>
+      </c>
+      <c r="E22">
+        <v>6500</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1414</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="3"/>
+        <v>1139.208984375</v>
+      </c>
+      <c r="D23">
+        <v>6600</v>
+      </c>
+      <c r="E23">
+        <v>6609</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1391</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="3"/>
+        <v>1120.6787109375</v>
+      </c>
+      <c r="D24">
+        <v>6700</v>
+      </c>
+      <c r="E24">
+        <v>6704</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1368</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="3"/>
+        <v>1102.1484375</v>
+      </c>
+      <c r="D25">
+        <v>6800</v>
+      </c>
+      <c r="E25">
+        <v>6799</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1345</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="3"/>
+        <v>1083.6181640625</v>
+      </c>
+      <c r="D26">
+        <v>6900</v>
+      </c>
+      <c r="E26">
+        <v>6893</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>-8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>1322</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="3"/>
+        <v>1065.087890625</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E27" s="6">
+        <v>7005</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>71</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1299</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="3"/>
+        <v>1046.5576171875</v>
+      </c>
+      <c r="D28">
+        <v>7100</v>
+      </c>
+      <c r="E28">
+        <v>7101</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1276</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="3"/>
+        <v>1028.02734375</v>
+      </c>
+      <c r="D29">
+        <v>7200</v>
+      </c>
+      <c r="E29">
+        <v>7198</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1253</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="3"/>
+        <v>1009.4970703125</v>
+      </c>
+      <c r="D30">
+        <v>7300</v>
+      </c>
+      <c r="E30">
+        <v>7308</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>74</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1230</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="3"/>
+        <v>990.966796875</v>
+      </c>
+      <c r="D31">
+        <v>7400</v>
+      </c>
+      <c r="E31">
+        <v>7403</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1207</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="3"/>
+        <v>972.4365234375</v>
+      </c>
+      <c r="D32">
+        <v>7500</v>
+      </c>
+      <c r="E32">
+        <v>7499</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1184</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="3"/>
+        <v>953.90625</v>
+      </c>
+      <c r="D33">
+        <v>7600</v>
+      </c>
+      <c r="E33">
+        <v>7608</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1161</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="3"/>
+        <v>935.3759765625</v>
+      </c>
+      <c r="D34">
+        <v>7700</v>
+      </c>
+      <c r="E34">
+        <v>7704</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>78</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1138</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="3"/>
+        <v>916.845703125</v>
+      </c>
+      <c r="D35">
+        <v>7800</v>
+      </c>
+      <c r="E35">
+        <v>7799</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>79</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1115</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="3"/>
+        <v>898.3154296875</v>
+      </c>
+      <c r="D36">
+        <v>7900</v>
+      </c>
+      <c r="E36">
+        <v>7909</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>80</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="0"/>
+        <v>1092</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" si="3"/>
+        <v>879.78515625</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8005</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>81</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1069</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="3"/>
+        <v>861.2548828125</v>
+      </c>
+      <c r="D38">
+        <v>8100</v>
+      </c>
+      <c r="E38">
+        <v>8099</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>82</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1046</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="3"/>
+        <v>842.724609375</v>
+      </c>
+      <c r="D39">
+        <v>8200</v>
+      </c>
+      <c r="E39">
+        <v>8211</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>83</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="3"/>
+        <v>824.1943359375</v>
+      </c>
+      <c r="D40">
+        <v>8300</v>
+      </c>
+      <c r="E40">
+        <v>8306</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="3"/>
+        <v>805.6640625</v>
+      </c>
+      <c r="D41">
+        <v>8400</v>
+      </c>
+      <c r="E41">
+        <v>8401</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>85</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>978</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="3"/>
+        <v>787.939453125</v>
+      </c>
+      <c r="D42">
+        <v>8500</v>
+      </c>
+      <c r="E42">
+        <v>8514</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="2"/>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>86</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>955</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="3"/>
+        <v>769.4091796875</v>
+      </c>
+      <c r="D43">
+        <v>8600</v>
+      </c>
+      <c r="E43">
+        <v>8608</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>87</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>932</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="3"/>
+        <v>750.87890625</v>
+      </c>
+      <c r="D44">
+        <v>8700</v>
+      </c>
+      <c r="E44">
+        <v>8703</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="3"/>
+        <v>732.3486328125</v>
+      </c>
+      <c r="D45">
+        <v>8800</v>
+      </c>
+      <c r="E45">
+        <v>8799</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>89</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>886</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="3"/>
+        <v>713.818359375</v>
+      </c>
+      <c r="D46">
+        <v>8900</v>
+      </c>
+      <c r="E46">
+        <v>8909</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>90</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" si="0"/>
+        <v>863</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" si="3"/>
+        <v>695.2880859375</v>
+      </c>
+      <c r="D47" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E47" s="6">
+        <v>9006</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>91</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="3"/>
+        <v>676.7578125</v>
+      </c>
+      <c r="D48">
+        <v>9100</v>
+      </c>
+      <c r="E48">
+        <v>9100</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>92</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>817</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="3"/>
+        <v>658.2275390625</v>
+      </c>
+      <c r="D49">
+        <v>9200</v>
+      </c>
+      <c r="E49">
+        <v>9211</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>93</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>794</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="3"/>
+        <v>639.697265625</v>
+      </c>
+      <c r="D50">
+        <v>9300</v>
+      </c>
+      <c r="E50">
+        <v>9305</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>94</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>771</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="3"/>
+        <v>621.1669921875</v>
+      </c>
+      <c r="D51">
+        <v>9400</v>
+      </c>
+      <c r="E51">
+        <v>9400</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>95</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>748</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="3"/>
+        <v>602.63671875</v>
+      </c>
+      <c r="D52">
+        <v>9500</v>
+      </c>
+      <c r="E52">
+        <v>9511</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="2"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>96</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="3"/>
+        <v>584.1064453125</v>
+      </c>
+      <c r="D53">
+        <v>9600</v>
+      </c>
+      <c r="E53">
+        <v>9605</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>97</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>702</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="3"/>
+        <v>565.576171875</v>
+      </c>
+      <c r="D54">
+        <v>9700</v>
+      </c>
+      <c r="E54">
+        <v>9701</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>98</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>679</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="3"/>
+        <v>547.0458984375</v>
+      </c>
+      <c r="D55">
+        <v>9800</v>
+      </c>
+      <c r="E55">
+        <v>9812</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" si="2"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>99</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="3"/>
+        <v>528.515625</v>
+      </c>
+      <c r="D56">
+        <v>9900</v>
+      </c>
+      <c r="E56">
+        <v>9907</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G56" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>100</v>
+      </c>
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>633</v>
+      </c>
+      <c r="C57" s="7">
+        <f t="shared" si="3"/>
+        <v>509.9853515625</v>
+      </c>
+      <c r="D57" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="6">
+        <v>10002</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>101</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="3"/>
+        <v>491.455078125</v>
+      </c>
+      <c r="D58">
+        <v>10100</v>
+      </c>
+      <c r="E58">
+        <v>10112</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="2"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>102</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="3"/>
+        <v>472.9248046875</v>
+      </c>
+      <c r="D59">
+        <v>10200</v>
+      </c>
+      <c r="E59">
+        <v>10206</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>103</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="3"/>
+        <v>454.39453125</v>
+      </c>
+      <c r="D60">
+        <v>10300</v>
+      </c>
+      <c r="E60">
+        <v>10301</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>104</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>541</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="3"/>
+        <v>435.8642578125</v>
+      </c>
+      <c r="D61">
+        <v>10400</v>
+      </c>
+      <c r="E61">
+        <v>10396</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G61" s="4">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>105</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="3"/>
+        <v>417.333984375</v>
+      </c>
+      <c r="D62">
+        <v>10500</v>
+      </c>
+      <c r="E62">
+        <v>10507</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>106</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="3"/>
+        <v>398.8037109375</v>
+      </c>
+      <c r="D63">
+        <v>10600</v>
+      </c>
+      <c r="E63">
+        <v>10602</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>107</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>472</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="3"/>
+        <v>380.2734375</v>
+      </c>
+      <c r="D64">
+        <v>10700</v>
+      </c>
+      <c r="E64">
+        <v>10697</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>108</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>449</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="3"/>
+        <v>361.7431640625</v>
+      </c>
+      <c r="D65">
+        <v>10800</v>
+      </c>
+      <c r="E65">
+        <v>10808</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>109</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="3"/>
+        <v>344.0185546875</v>
+      </c>
+      <c r="D66">
+        <v>10900</v>
+      </c>
+      <c r="E66">
+        <v>10903</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>110</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+      <c r="C67" s="7">
+        <f t="shared" si="3"/>
+        <v>325.48828125</v>
+      </c>
+      <c r="D67" s="6">
+        <v>11000</v>
+      </c>
+      <c r="E67" s="6">
+        <v>10999</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G67" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>111</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="3"/>
+        <v>306.9580078125</v>
+      </c>
+      <c r="D68">
+        <v>11100</v>
+      </c>
+      <c r="E68">
+        <v>11109</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>112</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="C69" s="5">
+        <f t="shared" si="3"/>
+        <v>288.427734375</v>
+      </c>
+      <c r="D69">
+        <v>11200</v>
+      </c>
+      <c r="E69">
+        <v>11203</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>113</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="3"/>
+        <v>269.8974609375</v>
+      </c>
+      <c r="D70">
+        <v>11300</v>
+      </c>
+      <c r="E70">
+        <v>11299</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G70" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>114</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:B77" si="4">ROUND($E$4-(((A71-$B$2)*($E$4-$E$3))/($B$1-$B$2)),0)</f>
+        <v>312</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="3"/>
+        <v>251.3671875</v>
+      </c>
+      <c r="D71">
+        <v>11400</v>
+      </c>
+      <c r="E71">
+        <v>11409</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>115</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="3"/>
+        <v>232.8369140625</v>
+      </c>
+      <c r="D72">
+        <v>11500</v>
+      </c>
+      <c r="E72">
+        <v>11506</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F77" si="5">E72-D72</f>
+        <v>6</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" ref="G72:G77" si="6">ROUND(F72/$I$2,1)</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>116</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" ref="C73:C77" si="7">B73*$E$1/$E$2</f>
+        <v>214.306640625</v>
+      </c>
+      <c r="D73">
+        <v>11600</v>
+      </c>
+      <c r="E73">
+        <v>11601</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>117</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="7"/>
+        <v>195.7763671875</v>
+      </c>
+      <c r="D74">
+        <v>11700</v>
+      </c>
+      <c r="E74">
+        <v>11712</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="6"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>118</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="7"/>
+        <v>177.24609375</v>
+      </c>
+      <c r="D75">
+        <v>11800</v>
+      </c>
+      <c r="E75">
+        <v>11808</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G75" s="4">
+        <f t="shared" si="6"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>119</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="7"/>
+        <v>158.7158203125</v>
+      </c>
+      <c r="D76">
+        <v>11900</v>
+      </c>
+      <c r="E76">
+        <v>11902</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>120</v>
+      </c>
+      <c r="B77" s="6">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="C77" s="7">
+        <f t="shared" si="7"/>
+        <v>140.185546875</v>
+      </c>
+      <c r="D77" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E77" s="6">
+        <v>12013</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="G77" s="9">
-        <f t="shared" si="4"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="6"/>
+        <v>16.100000000000001</v>
       </c>
     </row>
   </sheetData>
